--- a/mon-language-learning-system/src/assets/db-dict.xlsx
+++ b/mon-language-learning-system/src/assets/db-dict.xlsx
@@ -5,12 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="g-1 &quot;အ&quot;" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="g-2 &quot;ဣ&quot;" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="g-3 &quot;ဥ&quot;" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="g-4 &quot;ဨ&quot;" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="g-5 &quot;ဩ&quot;" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="g-6 &quot;က&quot;" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="2307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="2885">
   <si>
     <t xml:space="preserve">broken</t>
   </si>
@@ -21599,6 +21602,1781 @@
   </si>
   <si>
     <t xml:space="preserve">พี่สาว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥက္ကထ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɤk-kaˀ-tʰaˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอิก-กะ-ทะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ประธาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥက္ကံသၞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɤk-kɔmˀ-saˀnaˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอิก-กอฺม-ซะนะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">การเลื่อนขั้นให้สูงขึ้น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥစ္စာယိုဟ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ùˀc-ca-jɤˀh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุจ-จา-เย่อฮ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">การสั่งสอน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แบตเตอรี่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥဇု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-cuˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-จุ่ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ซื่อตรง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตรง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥတ္တရ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ùˀt-taˀ-rɛ̀ˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุด-ตะ-เรี่ยะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุดร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทิศเหนือ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥတု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-taò </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-เต่า </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ฤดู</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥဒ္ဓက</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุด-เที่ยะ-กะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥဒျာန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-tɛ̤ˀja̤n </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-เตี่ยะย่าน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">สวนอุทยาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥဒါဟိုဝ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-tɛ̀a-hɒw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-เตีย-ฮอฺว </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุทาหรณ์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥဒေ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-tè </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-เต่ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ขึ้น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทะยาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">พระอาทิตย์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ùˀp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">คลุม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပ်ပလက်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อบให้เหงื่อออก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပကာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-paˀ-ka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปะ-กา </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุปการะ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ค้ำจุน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เกื้อหนุน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပစါ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-paˀ-ca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปะ-จา </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပဒြဴ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-paˀ-trɛ̀a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปะ-เตรีย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุปัทวันตราย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပဒေဟ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-paˀ-tèˀh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปะ-เต่ฮ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กฎระเบียบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ข้อบังคับ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กฎธรรมชาติ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပ္ပဇ္ၛာဲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ùˀp-pɒc-cʰa̤i </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุบ-ปอจ-ช่าย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">พระอุปัชฌาย์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပ္ပတိ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ùˀp-paˀ-tɔɪ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุบ-ปะ-ตอฺย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">การอุบัติขึ้น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การเกิดขึ้น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပ္ပမာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ùˀp-paˀ-mɛ̀a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุบ-ปะ-เมีย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">การเปรียบเทียบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပ္ပမေယျ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ùˀp-paˀ-mɛ̀a-jɛ̀ˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุบ-ปะ-เมี่ย-เยี่ยะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">การอุปไมย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สิ่งที่นำมาเปรียบเทียบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပပါတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-paˀ-pat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปะ-ปาด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุปัทวเหตุ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပ္ပာဲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ùˀp-pai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุบ-ปาย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပဘောဂ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-paˀ-pʰəʊ-kɛ̀ˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปะ-โพว-เกี่ยะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ใช้สอย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุปโภค</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပရာဇာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-paˀ-rɛ̀a-cɛ̀a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปะ-เรีย-เจีย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">พระอุปราช</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กษัตริย์รอง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အုပ်လဒမ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʔùˀp-lɛ̀ˀ-tòm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุบ-เลี่ยะ-ต่ม </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปกครอง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อยู่ยาม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อยู่รักษา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပါဒါန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-pa-ta̤n </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปา-ต่าน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุปาทาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การยึดมั่นถือมั่น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การนึกเอาเอง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပါသက</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-pa-saˀ-kaˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปา-ซะ-กะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุบาสก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပါသိကာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-pa-sɔɪ-ka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปา-ซอฺย-กา </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุบาสิกา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชลูด (สมุนไพร)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပုဟ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-pùh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปุฮ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุโบสถ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပေက္ခာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-pɒk-kʰa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปอฺก-คา </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">u-p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ɛ̀k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-kʰa </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-เปียก-คา </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุเบกขา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ความเป็นกลาง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပေါဟ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-poh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-โปฮ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပး</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-pah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปะฮ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุบาสกอุบาสิกา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပဵု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-pɒw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปอฺว </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุบล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ดอกบัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥပဵုလဝန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-pɒw-lɛ̀ˀ-wòn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ปอฺว-เลี่ยะ-ว่น </t>
+  </si>
+  <si>
+    <t xml:space="preserve">นางอุบลวรรณาอุบาสิกา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥမင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-mɛˀŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-แม่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุโมงค์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥမတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-mòt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ม่ด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥရ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-rɛ̀ˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-เรี่ยะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥသ္သဘ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ùˀs-saˀ-pʰɛ̀ˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุซ-ซะ-เพี่ยะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">โคอุสภะ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผู้กล้าหาญ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥသဳ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-saɪ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ซอย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชุบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥုကာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-ka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-กา </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตัวเล็น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥုရှကိုတ်</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-hraˀ-kɒt </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ-ฮระ-กอฺด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">แจ่มใส</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แจ้มแจ้ง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สุกใส</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เปล่งปลั่ง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဨက</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-kaˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ-กะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">หนึ่ง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอเคอร์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဨကရာဇ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-kaˀ-ra̤c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ-กะ-ร่าจ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">พระเจ้าแผ่นดิน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กษัตริย์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဨကဂ္ဂတာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-kaˀk-kɛ̀ˀ-ta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ-กัก-เกี่ยะ-ตา </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ความแน่งแน่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ความเป็นหนึ่งเดียว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဨကန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-kɒn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ-กอน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">แท้จริง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဨကန္တ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-kɒn-taˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ-กอน-ตะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဨကောဝ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-kao-wɛ̀ˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ-เกา-เวี่ยะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">โดดเดี่ยว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผู้เดียว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဨရာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-rɛ̀a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ-เรีย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กระดูกงูเรือ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဨရှာဝိုန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-hra-wɤˀn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ-ฮรา-เวิ่น </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ช้างเอราวัณ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဨသာန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-san </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ-ซาน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อีสาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทิศตะวันออกเฉียงเหนือ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဨဟိ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-hɔɪ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ-ฮอฺย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">จงมา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">มาซี</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอา </t>
+  </si>
+  <si>
+    <t xml:space="preserve">โอ้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โอ๋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอ้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဩဃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao-kʰɛ̀ˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอา-เคี่ยะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ห้วงน้ำ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဩယာဲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao-ja̤i </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอา-ย่าย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อุ้ยแม่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဩဝါဒ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ao-wɛ̀a-tɛ̀ˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอา-เวีย-เตี่ยะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">โอวาท</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คำสอน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥုံ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʔum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">คำขึ้นต้นในการว่าคาถา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">โอม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">က</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">พยัญชนะมอญตัวที่ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กว่า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ၜါစ်ှောဟွံက</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยี่สิบกว่า, เกินยี่สิบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကကြင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-kraˀŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-กรัง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาตะเพียน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကကြင်ခေါ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-kraˀŋ-kʰao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-กรัง-เคา </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาตะเพียนขาว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကကြင်ထင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-kraˀŋ-tʰaˀŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-กรัง-ทัง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาตะเพียนทอง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကကၠ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-klaˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-กละ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาชะโด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကကၠိက်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-klɤk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เกลิก </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาหมู</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကကၠဴ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-klao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-กลาว </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาตีน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကခတေတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-kʰaˀ-tet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-คะ-เตด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลากะพง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကခပိုင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-kʰaˀ-pɒŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-คะ-ปาฺง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาสวาย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဂဂေါင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-kɛ̀ˀ-kòŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เกี่ยะ-โก่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาเข็ม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဂဗံင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-kɛ̀ˀ-pɒˀŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เกี่ยะ-ป่อง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลากระพงชนิดใหญ่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဂြင်ဗှ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-krɛˀŋ-pòh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-แกร่ง-โป่ฮ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาโลมา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဃြု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-kʰɛ̤ˀruˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เคี่ยะรุ่ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลากะสง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကစိန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-cɔeˀn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-จิน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">แหวน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကစိန်ဇိင်ယာတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-cɔeˀn-cɤˀŋ-ja̤t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-จิน-เจิ่ง-ย่าด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลอกนิ้ว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကစိန်ပလော</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-cɔeˀn-paˀ-ləʊ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-จิน-ปะ-โลว </t>
+  </si>
+  <si>
+    <t xml:space="preserve">แหวนปลอกมีด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကစိန်မတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-cɔeˀn-mòt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-จิน-ม่ด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">แหวนประดับด้วยอัญมณี</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကစုက်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-cɤk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เจิก </t>
+  </si>
+  <si>
+    <t xml:space="preserve">โดน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กระทบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဆိင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-cʰɤŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เชิง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ช่างฟ้อน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ช่างรำ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဇနာန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-cɛ̀ˀ-na̤n </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เจี่ยะ-น่าน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาหลด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဇိုင်ဒိပ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-cə̤ŋ-tìˀp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-จ่าฺง-ติ่บ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาหมอตาล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาหมอช้างเหยียบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကညောအ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kɒɲ-ɲòˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กอญ-โญ่ะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ย่น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยับ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่เรียบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဍတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-ɗɒt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ดอด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาหมอ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဍာ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-ɗak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ดาก </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาเค้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อีกา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဍာ်ဂြိုပ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-ɗak-krɤˀp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ดาก-เกริ่บ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อีกาป่า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဍာ်ဗတင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-ɗak-pɛ̀ˀ-taˀŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ดาก-เปี่ยะ-ตัง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปั้นจั่น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">นกใหญ่ชนิดหนึ่ง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဍာ်ဗနံင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-ɗak-pɛ̀ˀ-nɒˀŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ดาก-เปี่ยะ-น่อง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">นกดุเหว่า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဍာ်သၟိင်ရာံ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-ɗak-saˀmɤŋ-rèm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ดาก-ซะเมิง-เร่ม </t>
+  </si>
+  <si>
+    <t xml:space="preserve">อีกาพระราม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဍာင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-ɗaŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ดาง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เหล็กกล้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဍောပ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-ɗop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-โดบ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">หุบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတဝေဒဳ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-taˀ-wè-tì </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตะ-เว่-ตี่ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กตเวที</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สนองคุณที่เขาได้ทำแก่ตัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတက်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-taˀk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตัก </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ท้ายทอย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတင်ၜဴ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-taˀŋ-ɓao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตัง-บาว </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาซิวอ้าว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတညူ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tɒɲ-ɲù </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตอญ-ญู่ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กตัญญู</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รู้จักคุณที่เขาทำให้แก่ตัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတာတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตาด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">คลึง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทำให้เป็นรูปทรงต่างๆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปั่นด้วยฝ่ามือสองข้าง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတာတ်ဖလေက်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tat-pʰaˀ-lɛ̀ˀk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตาด-พะ-เลี่ยก </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ขยี้ให้ละเอียดเป็นผง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတေ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-te </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เต </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาเค้าขนาดใหญ่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတောဝ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-โตว </t>
+  </si>
+  <si>
+    <t xml:space="preserve">หู</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတဴ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตาว </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้อน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတဴကတာန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tao-kaˀ-tan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตาว-กะ-ตาน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้อนนอกร้อนใน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เดือดร้อน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတဴကတာန်စံင်သၞာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tao-kaˀ-tan-cɒŋ-saˀna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตาว-กะ-ตาน-จอง-ซะนา </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทุรนทุราย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတိုင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tɒŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตาฺง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">หลุม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กระเด้ง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กระดอน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတိုင်ကလုဲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tɒŋ-kaˀ-lùi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตาฺง-กะ-ลุ่ย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">การเล่นหยอดหลุม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတိုင်ဂေါက်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tɒŋ-kòk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตาฺง-โก่ก </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เตาไฟ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတိုင်စင်ခတေတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tɒŋ-caˀŋ-kʰaˀ-tet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตาฺง-จัง-คะ-เตด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">หลุมที่ขุดไว้ใต้แท่นเลื่อยไม้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတဵု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tɒw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตอฺว </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะท้อน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကတဵုဂကောင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tɒw-kɛ̀ˀ-koŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ตอฺว-เกี่ยะ-โกง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ฝักคูณ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကထေင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tʰɒŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ทอฺง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">คลึงเป็นทรงกลม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทำให้กลม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทำให้เป็นกลุ่มก้อน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဒဂေါင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tɛ̀ˀ-kòŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เตี่ยะ-โก่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဒဒဵု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tɛ̀ˀ-tɤˀw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เตี่ยะ-เติ่ว </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาย่าง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဒလုင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tɛ̀ˀ-lɤˀŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เตี่ยะ-เลิ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาไหล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဓီု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-tʰɤˀm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เทิ่ม </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ที่อยู่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เคหสถาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-nòt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-น่ด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม้กลัด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနာတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-na̤t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-น่าด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ซัง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနာတ်ၜဴ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ซังอ้อย, ชานอ้อย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနုက်ကနာဲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-nɤˀk-kaˀ-na̤i </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เนิ่ก-กะ-น่าย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ซ่อนเร้น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปิดบัง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วุ่นวาย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ว้าวุ่น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ฟุ้งซ่าน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနုကမာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-nuˀ-kaˀ-mɛ̀a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-นุ่-กะ-เมีย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">หอยนางรม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနေင်ဒွက်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-nɒˀŋ-tɛ̤ˀwɛˀk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-น่อง-เตี่ยะแว่ก </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผูกมัด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผูกพันธ์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနေံ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-nèm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เน่ม </t>
+  </si>
+  <si>
+    <t xml:space="preserve">มะดัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနောတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-โน่ด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สุด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနောတ်သော်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-nòt-sok </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-โน่ด-โซก </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปิ่นปักผม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနံ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-nòmˀ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-น่ม </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เดือด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဍာ်ကနံ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">น้ำเดือด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကပကိုင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-paˀ-kɒŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ปะ-กาฺง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาแขยง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကပဍေင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-paˀ-ɗɒŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ปะ-ดอฺง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาน้ำกร่อยคล้ายปลาตะเพียนเกล็ดเล็ก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကပနး</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-paˀ-nɛ̀h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ปะ-เนี่ยฮ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาเม็ดขนุนป่า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကပလိုက်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-paˀ-lə̤k </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-ปะ-ล่าฺก </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาหัวยุ่ง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကပေါဝ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-pow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-โปว </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ส้มป่อย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဗကိတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-pɛ̀ˀ-kɔeˀt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เปี่ยะ-กิด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลากัด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဗွဲချဟ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-pɛ̤ˀwòa-kʰjɒh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เปี่ยะวั่ว-คยอฮ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาดาบลาว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဗၞာံ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-pɛ̤ˀnèm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เปี่ยะเน่ม </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဗလုဟ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-pɛ̀ˀ-lùˀh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เปี่ยะ-ลุ่ฮ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลากระบอก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဗလေင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-pɛ̀ˀ-lɒˀŋ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เปี่ยะ-ล่อง </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาสังคะวาด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကဗုင်ပေတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-pɤˀŋ-pet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เปิ่ง-เปด </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาชนิดหนึ่งรูปคล้ายปลาสร้อยแต่ตัวโตกว่า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကမနာံ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-mɛ̀ˀ-nèm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เมี่ยะ-เน่ม </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลากะมัง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကမပနဟ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaˀ-mɛ̀ˀ-paˀ-nòh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ-เมี่ยะ-ปะ-โน่ฮ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปลาชนิดหนึ่งคล้ายปลาช่อน</t>
   </si>
 </sst>
 </file>
@@ -21650,8 +23428,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -21713,7 +23491,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21725,12 +23503,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -22194,7 +23972,7 @@
       <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -23871,7 +25649,7 @@
       <c r="B68" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="4" t="s">
         <v>346</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -38649,15 +40427,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z82"/>
+  <dimension ref="A1:Z1038"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="28.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38744,20 +40522,20 @@
       <c r="B2" s="1" t="n">
         <v>454</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>2141</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>2142</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2143</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="H2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>2144</v>
       </c>
     </row>
@@ -38765,7 +40543,7 @@
       <c r="B3" s="1" t="n">
         <v>455</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>2145</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -38775,22 +40553,22 @@
         <v>2147</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="H3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>2148</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>2149</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>2150</v>
       </c>
     </row>
@@ -38798,7 +40576,7 @@
       <c r="B4" s="1" t="n">
         <v>456</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>2151</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -38810,19 +40588,19 @@
       <c r="F4" s="4" t="s">
         <v>2154</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>2155</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>2157</v>
       </c>
     </row>
@@ -38830,31 +40608,31 @@
       <c r="B5" s="1" t="n">
         <v>457</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>2158</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>2159</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2160</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>2161</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2162</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="0" t="s">
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>2157</v>
       </c>
     </row>
@@ -38862,7 +40640,7 @@
       <c r="B6" s="1" t="n">
         <v>458</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>2163</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -38871,22 +40649,22 @@
       <c r="E6" s="4" t="s">
         <v>2165</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>2168</v>
       </c>
     </row>
@@ -38894,7 +40672,7 @@
       <c r="B7" s="1" t="n">
         <v>459</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>2169</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -38903,10 +40681,10 @@
       <c r="E7" s="4" t="s">
         <v>2171</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="0" t="s">
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>901</v>
       </c>
     </row>
@@ -38914,7 +40692,7 @@
       <c r="B8" s="1" t="n">
         <v>460</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>2172</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -38923,10 +40701,10 @@
       <c r="E8" s="4" t="s">
         <v>2174</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="0" t="s">
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -38934,7 +40712,7 @@
       <c r="B9" s="1" t="n">
         <v>461</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>2176</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -38943,16 +40721,16 @@
       <c r="E9" s="4" t="s">
         <v>2178</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>1860</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="0" t="s">
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>1861</v>
       </c>
     </row>
@@ -38960,7 +40738,7 @@
       <c r="B10" s="1" t="n">
         <v>462</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>2179</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -38969,28 +40747,28 @@
       <c r="E10" s="4" t="s">
         <v>2181</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>2183</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="1" t="s">
         <v>2184</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" s="1" t="s">
         <v>2185</v>
       </c>
     </row>
@@ -38998,7 +40776,7 @@
       <c r="B11" s="1" t="n">
         <v>463</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>2186</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -39007,10 +40785,10 @@
       <c r="E11" s="4" t="s">
         <v>2188</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>2189</v>
       </c>
     </row>
@@ -39018,7 +40796,7 @@
       <c r="B12" s="1" t="n">
         <v>464</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>2190</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -39027,16 +40805,16 @@
       <c r="E12" s="4" t="s">
         <v>2192</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>2193</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="1" t="s">
         <v>2194</v>
       </c>
     </row>
@@ -39044,7 +40822,7 @@
       <c r="B13" s="1" t="n">
         <v>465</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>2195</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -39053,16 +40831,16 @@
       <c r="E13" s="4" t="s">
         <v>2197</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="0" t="s">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>2199</v>
       </c>
     </row>
@@ -39070,7 +40848,7 @@
       <c r="B14" s="1" t="n">
         <v>466</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>2200</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -39079,16 +40857,16 @@
       <c r="E14" s="4" t="s">
         <v>2202</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>2203</v>
       </c>
-      <c r="J14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="0" t="s">
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>2204</v>
       </c>
     </row>
@@ -39096,7 +40874,7 @@
       <c r="B15" s="1" t="n">
         <v>467</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>2205</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -39105,16 +40883,16 @@
       <c r="E15" s="4" t="s">
         <v>2181</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="0" t="s">
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>2157</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="0" t="s">
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>2156</v>
       </c>
     </row>
@@ -39122,7 +40900,7 @@
       <c r="B16" s="1" t="n">
         <v>468</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="3" t="s">
         <v>2207</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -39131,16 +40909,16 @@
       <c r="E16" s="4" t="s">
         <v>2209</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>2210</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="0" t="s">
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>1842</v>
       </c>
     </row>
@@ -39148,7 +40926,7 @@
       <c r="B17" s="1" t="n">
         <v>469</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="3" t="s">
         <v>2211</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -39157,10 +40935,10 @@
       <c r="E17" s="4" t="s">
         <v>1789</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>1790</v>
       </c>
     </row>
@@ -39168,7 +40946,7 @@
       <c r="B18" s="1" t="n">
         <v>470</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="3" t="s">
         <v>2213</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -39177,10 +40955,10 @@
       <c r="E18" s="4" t="s">
         <v>2215</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="0" t="s">
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>2216</v>
       </c>
     </row>
@@ -39188,7 +40966,7 @@
       <c r="B19" s="1" t="n">
         <v>471</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="3" t="s">
         <v>2217</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -39197,10 +40975,10 @@
       <c r="E19" s="4" t="s">
         <v>2219</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="0" t="s">
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>1821</v>
       </c>
     </row>
@@ -39208,7 +40986,7 @@
       <c r="B20" s="1" t="n">
         <v>472</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="3" t="s">
         <v>2220</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -39217,16 +40995,16 @@
       <c r="E20" s="4" t="s">
         <v>2222</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="0" t="s">
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>2223</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="0" t="s">
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>688</v>
       </c>
     </row>
@@ -39234,7 +41012,7 @@
       <c r="B21" s="1" t="n">
         <v>473</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="3" t="s">
         <v>2224</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -39243,10 +41021,10 @@
       <c r="E21" s="4" t="s">
         <v>2226</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>2227</v>
       </c>
     </row>
@@ -39254,7 +41032,7 @@
       <c r="B22" s="1" t="n">
         <v>474</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="3" t="s">
         <v>2228</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -39263,22 +41041,22 @@
       <c r="E22" s="4" t="s">
         <v>2230</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="0" t="s">
+      <c r="H22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="0" t="s">
+      <c r="J22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="0" t="s">
+      <c r="L22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>2233</v>
       </c>
     </row>
@@ -39286,7 +41064,7 @@
       <c r="B23" s="1" t="n">
         <v>475</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="3" t="s">
         <v>2234</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -39295,16 +41073,16 @@
       <c r="E23" s="4" t="s">
         <v>2236</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="0" t="s">
+      <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="J23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="0" t="s">
+      <c r="J23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>2238</v>
       </c>
     </row>
@@ -39312,7 +41090,7 @@
       <c r="B24" s="1" t="n">
         <v>476</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="3" t="s">
         <v>2239</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -39327,16 +41105,16 @@
       <c r="G24" s="4" t="s">
         <v>2243</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="0" t="s">
+      <c r="H24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="J24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="0" t="s">
+      <c r="J24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>2245</v>
       </c>
     </row>
@@ -39344,7 +41122,7 @@
       <c r="B25" s="1" t="n">
         <v>477</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="3" t="s">
         <v>2246</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -39353,16 +41131,16 @@
       <c r="E25" s="4" t="s">
         <v>2248</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="0" t="s">
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="0" t="s">
+      <c r="J25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>2250</v>
       </c>
     </row>
@@ -39370,7 +41148,7 @@
       <c r="B26" s="1" t="n">
         <v>478</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="3" t="s">
         <v>2251</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -39379,16 +41157,16 @@
       <c r="E26" s="4" t="s">
         <v>2253</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="0" t="s">
+      <c r="H26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="J26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="0" t="s">
+      <c r="J26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>2255</v>
       </c>
     </row>
@@ -39396,7 +41174,7 @@
       <c r="B27" s="1" t="n">
         <v>479</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="3" t="s">
         <v>2256</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -39405,22 +41183,22 @@
       <c r="E27" s="4" t="s">
         <v>2258</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="1" t="s">
         <v>2259</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="K27" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="M27" s="1" t="s">
         <v>2261</v>
       </c>
     </row>
@@ -39428,7 +41206,7 @@
       <c r="B28" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="3" t="s">
         <v>2262</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -39437,10 +41215,10 @@
       <c r="E28" s="4" t="s">
         <v>2264</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="0" t="s">
+      <c r="H28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>2265</v>
       </c>
     </row>
@@ -39448,7 +41226,7 @@
       <c r="B29" s="1" t="n">
         <v>481</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="3" t="s">
         <v>2266</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -39457,22 +41235,22 @@
       <c r="E29" s="4" t="s">
         <v>2268</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="1" t="s">
         <v>2269</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="M29" s="1" t="s">
         <v>2271</v>
       </c>
     </row>
@@ -39480,7 +41258,7 @@
       <c r="B30" s="1" t="n">
         <v>482</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="3" t="s">
         <v>2272</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -39489,34 +41267,34 @@
       <c r="E30" s="4" t="s">
         <v>2274</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="0" t="s">
+      <c r="H30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="J30" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="0" t="s">
+      <c r="J30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="0" t="s">
+      <c r="M30" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="0" t="s">
+      <c r="O30" s="1" t="s">
         <v>2138</v>
       </c>
-      <c r="P30" s="0" t="s">
+      <c r="P30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q30" s="0" t="s">
+      <c r="Q30" s="1" t="s">
         <v>2140</v>
       </c>
     </row>
@@ -39524,7 +41302,7 @@
       <c r="B31" s="1" t="n">
         <v>483</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="3" t="s">
         <v>2275</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -39533,10 +41311,10 @@
       <c r="E31" s="4" t="s">
         <v>2277</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="H31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>2278</v>
       </c>
     </row>
@@ -39544,7 +41322,7 @@
       <c r="B32" s="1" t="n">
         <v>484</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="3" t="s">
         <v>2279</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -39553,22 +41331,22 @@
       <c r="E32" s="4" t="s">
         <v>2281</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="J32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="0" t="s">
+      <c r="J32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="L32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M32" s="0" t="s">
+      <c r="L32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>2284</v>
       </c>
     </row>
@@ -39576,7 +41354,7 @@
       <c r="B33" s="1" t="n">
         <v>485</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="3" t="s">
         <v>2285</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -39585,10 +41363,10 @@
       <c r="E33" s="4" t="s">
         <v>2287</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="0" t="s">
+      <c r="H33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>1842</v>
       </c>
     </row>
@@ -39596,7 +41374,7 @@
       <c r="B34" s="1" t="n">
         <v>486</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="3" t="s">
         <v>2288</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -39605,16 +41383,16 @@
       <c r="E34" s="4" t="s">
         <v>2290</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K34" s="1" t="s">
         <v>2291</v>
       </c>
     </row>
@@ -39622,7 +41400,7 @@
       <c r="B35" s="1" t="n">
         <v>487</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="3" t="s">
         <v>2292</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -39631,10 +41409,10 @@
       <c r="E35" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="H35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="0" t="s">
+      <c r="H35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>2295</v>
       </c>
     </row>
@@ -39642,7 +41420,7 @@
       <c r="B36" s="1" t="n">
         <v>488</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="3" t="s">
         <v>2296</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -39651,10 +41429,10 @@
       <c r="E36" s="4" t="s">
         <v>2298</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="0" t="s">
+      <c r="H36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>2157</v>
       </c>
     </row>
@@ -39662,7 +41440,7 @@
       <c r="B37" s="1" t="n">
         <v>489</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="3" t="s">
         <v>2299</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -39671,10 +41449,10 @@
       <c r="E37" s="4" t="s">
         <v>2301</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="0" t="s">
+      <c r="H37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>2302</v>
       </c>
     </row>
@@ -39682,7 +41460,7 @@
       <c r="B38" s="1" t="n">
         <v>490</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="3" t="s">
         <v>2303</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -39691,144 +41469,3056 @@
       <c r="E38" s="4" t="s">
         <v>2305</v>
       </c>
-      <c r="H38" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="0" t="s">
+      <c r="H38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>2306</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="1"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="1"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="1"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="1"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="1"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="1"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="1"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="1"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="1"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="1"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="1"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="1"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="1"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="1"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="1"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="1"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="1"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="1"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="1"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="1"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="1"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="1"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="1"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="1"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="1"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="1"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="1"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="1"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="1"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="1"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="1"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="1"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="1"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="1"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="1"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="1"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="1"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="1"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C445" s="3"/>
+    </row>
+    <row r="446" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C446" s="3"/>
+    </row>
+    <row r="447" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C447" s="3"/>
+    </row>
+    <row r="448" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C448" s="3"/>
+    </row>
+    <row r="449" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C449" s="3"/>
+    </row>
+    <row r="450" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C450" s="3"/>
+    </row>
+    <row r="451" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C451" s="3"/>
+    </row>
+    <row r="452" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C452" s="3"/>
+    </row>
+    <row r="453" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C453" s="3"/>
+    </row>
+    <row r="454" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C454" s="3"/>
+    </row>
+    <row r="455" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C455" s="3"/>
+    </row>
+    <row r="456" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C456" s="3"/>
+    </row>
+    <row r="457" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C457" s="3"/>
+    </row>
+    <row r="458" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C458" s="3"/>
+    </row>
+    <row r="459" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C459" s="3"/>
+    </row>
+    <row r="460" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C460" s="3"/>
+    </row>
+    <row r="461" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C461" s="3"/>
+    </row>
+    <row r="462" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C462" s="3"/>
+    </row>
+    <row r="463" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C463" s="3"/>
+    </row>
+    <row r="464" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C464" s="3"/>
+    </row>
+    <row r="465" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C465" s="3"/>
+    </row>
+    <row r="466" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C466" s="3"/>
+    </row>
+    <row r="467" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C467" s="3"/>
+    </row>
+    <row r="468" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C468" s="3"/>
+    </row>
+    <row r="469" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C469" s="3"/>
+    </row>
+    <row r="470" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C470" s="3"/>
+    </row>
+    <row r="471" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C471" s="3"/>
+    </row>
+    <row r="472" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C472" s="3"/>
+    </row>
+    <row r="473" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C473" s="3"/>
+    </row>
+    <row r="474" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C474" s="3"/>
+    </row>
+    <row r="475" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C475" s="3"/>
+    </row>
+    <row r="476" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C476" s="3"/>
+    </row>
+    <row r="477" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C477" s="3"/>
+    </row>
+    <row r="478" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C478" s="3"/>
+    </row>
+    <row r="479" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C479" s="3"/>
+    </row>
+    <row r="480" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C480" s="3"/>
+    </row>
+    <row r="481" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C481" s="3"/>
+    </row>
+    <row r="482" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C482" s="3"/>
+    </row>
+    <row r="483" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C483" s="3"/>
+    </row>
+    <row r="484" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C484" s="3"/>
+    </row>
+    <row r="485" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C485" s="3"/>
+    </row>
+    <row r="486" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C486" s="3"/>
+    </row>
+    <row r="487" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C487" s="3"/>
+    </row>
+    <row r="488" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C488" s="3"/>
+    </row>
+    <row r="489" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C489" s="3"/>
+    </row>
+    <row r="490" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C490" s="3"/>
+    </row>
+    <row r="491" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C491" s="3"/>
+    </row>
+    <row r="492" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C492" s="3"/>
+    </row>
+    <row r="493" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C493" s="3"/>
+    </row>
+    <row r="494" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C494" s="3"/>
+    </row>
+    <row r="495" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C495" s="3"/>
+    </row>
+    <row r="496" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C496" s="3"/>
+    </row>
+    <row r="497" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C497" s="3"/>
+    </row>
+    <row r="498" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C498" s="3"/>
+    </row>
+    <row r="499" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C499" s="3"/>
+    </row>
+    <row r="500" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C500" s="3"/>
+    </row>
+    <row r="501" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C501" s="3"/>
+    </row>
+    <row r="502" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C502" s="3"/>
+    </row>
+    <row r="503" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C503" s="3"/>
+    </row>
+    <row r="504" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C504" s="3"/>
+    </row>
+    <row r="505" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C505" s="3"/>
+    </row>
+    <row r="506" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C506" s="3"/>
+    </row>
+    <row r="507" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C507" s="3"/>
+    </row>
+    <row r="508" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C508" s="3"/>
+    </row>
+    <row r="509" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C509" s="3"/>
+    </row>
+    <row r="510" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C510" s="3"/>
+    </row>
+    <row r="511" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C511" s="3"/>
+    </row>
+    <row r="512" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C512" s="3"/>
+    </row>
+    <row r="513" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C513" s="3"/>
+    </row>
+    <row r="514" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C514" s="3"/>
+    </row>
+    <row r="515" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C515" s="3"/>
+    </row>
+    <row r="516" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C516" s="3"/>
+    </row>
+    <row r="517" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C517" s="3"/>
+    </row>
+    <row r="518" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C518" s="3"/>
+    </row>
+    <row r="519" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C519" s="3"/>
+    </row>
+    <row r="520" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C520" s="3"/>
+    </row>
+    <row r="521" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C521" s="3"/>
+    </row>
+    <row r="522" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C522" s="3"/>
+    </row>
+    <row r="523" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C523" s="3"/>
+    </row>
+    <row r="524" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C524" s="3"/>
+    </row>
+    <row r="525" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C525" s="3"/>
+    </row>
+    <row r="526" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C526" s="3"/>
+    </row>
+    <row r="527" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C527" s="3"/>
+    </row>
+    <row r="528" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C528" s="3"/>
+    </row>
+    <row r="529" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C529" s="3"/>
+    </row>
+    <row r="530" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C530" s="3"/>
+    </row>
+    <row r="531" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C531" s="3"/>
+    </row>
+    <row r="532" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C532" s="3"/>
+    </row>
+    <row r="533" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C533" s="3"/>
+    </row>
+    <row r="534" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C534" s="3"/>
+    </row>
+    <row r="535" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C535" s="3"/>
+    </row>
+    <row r="536" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C536" s="3"/>
+    </row>
+    <row r="537" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C537" s="3"/>
+    </row>
+    <row r="538" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C538" s="3"/>
+    </row>
+    <row r="539" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C539" s="3"/>
+    </row>
+    <row r="540" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C540" s="3"/>
+    </row>
+    <row r="541" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C541" s="3"/>
+    </row>
+    <row r="542" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C542" s="3"/>
+    </row>
+    <row r="543" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C543" s="3"/>
+    </row>
+    <row r="544" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C544" s="3"/>
+    </row>
+    <row r="545" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C545" s="3"/>
+    </row>
+    <row r="546" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C546" s="3"/>
+    </row>
+    <row r="547" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C547" s="3"/>
+    </row>
+    <row r="548" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C548" s="3"/>
+    </row>
+    <row r="549" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C549" s="3"/>
+    </row>
+    <row r="550" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C550" s="3"/>
+    </row>
+    <row r="551" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C551" s="3"/>
+    </row>
+    <row r="552" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C552" s="3"/>
+    </row>
+    <row r="553" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C553" s="3"/>
+    </row>
+    <row r="554" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C554" s="3"/>
+    </row>
+    <row r="555" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C555" s="3"/>
+    </row>
+    <row r="556" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C556" s="3"/>
+    </row>
+    <row r="557" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C557" s="3"/>
+    </row>
+    <row r="558" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C558" s="3"/>
+    </row>
+    <row r="559" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C559" s="3"/>
+    </row>
+    <row r="560" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C560" s="3"/>
+    </row>
+    <row r="561" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C561" s="3"/>
+    </row>
+    <row r="562" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C562" s="3"/>
+    </row>
+    <row r="563" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C563" s="3"/>
+    </row>
+    <row r="564" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C564" s="3"/>
+    </row>
+    <row r="565" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C565" s="3"/>
+    </row>
+    <row r="566" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C566" s="3"/>
+    </row>
+    <row r="567" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C567" s="3"/>
+    </row>
+    <row r="568" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C568" s="3"/>
+    </row>
+    <row r="569" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C569" s="3"/>
+    </row>
+    <row r="570" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C570" s="3"/>
+    </row>
+    <row r="571" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C571" s="3"/>
+    </row>
+    <row r="572" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C572" s="3"/>
+    </row>
+    <row r="573" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C573" s="3"/>
+    </row>
+    <row r="574" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C574" s="3"/>
+    </row>
+    <row r="575" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C575" s="3"/>
+    </row>
+    <row r="576" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C576" s="3"/>
+    </row>
+    <row r="577" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C577" s="3"/>
+    </row>
+    <row r="578" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C578" s="3"/>
+    </row>
+    <row r="579" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C579" s="3"/>
+    </row>
+    <row r="580" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C580" s="3"/>
+    </row>
+    <row r="581" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C581" s="3"/>
+    </row>
+    <row r="582" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C582" s="3"/>
+    </row>
+    <row r="583" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C583" s="3"/>
+    </row>
+    <row r="584" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C584" s="3"/>
+    </row>
+    <row r="585" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C585" s="3"/>
+    </row>
+    <row r="586" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C586" s="3"/>
+    </row>
+    <row r="587" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C587" s="3"/>
+    </row>
+    <row r="588" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C588" s="3"/>
+    </row>
+    <row r="589" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C589" s="3"/>
+    </row>
+    <row r="590" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C590" s="3"/>
+    </row>
+    <row r="591" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C591" s="3"/>
+    </row>
+    <row r="592" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C592" s="3"/>
+    </row>
+    <row r="593" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C593" s="3"/>
+    </row>
+    <row r="594" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C594" s="3"/>
+    </row>
+    <row r="595" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C595" s="3"/>
+    </row>
+    <row r="596" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C596" s="3"/>
+    </row>
+    <row r="597" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C597" s="3"/>
+    </row>
+    <row r="598" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C598" s="3"/>
+    </row>
+    <row r="599" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C599" s="3"/>
+    </row>
+    <row r="600" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C600" s="3"/>
+    </row>
+    <row r="601" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C601" s="3"/>
+    </row>
+    <row r="602" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C602" s="3"/>
+    </row>
+    <row r="603" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C603" s="3"/>
+    </row>
+    <row r="604" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C604" s="3"/>
+    </row>
+    <row r="605" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C605" s="3"/>
+    </row>
+    <row r="606" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C606" s="3"/>
+    </row>
+    <row r="607" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C607" s="3"/>
+    </row>
+    <row r="608" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C608" s="3"/>
+    </row>
+    <row r="609" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C609" s="3"/>
+    </row>
+    <row r="610" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C610" s="3"/>
+    </row>
+    <row r="611" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C611" s="3"/>
+    </row>
+    <row r="612" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C612" s="3"/>
+    </row>
+    <row r="613" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C613" s="3"/>
+    </row>
+    <row r="614" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C614" s="3"/>
+    </row>
+    <row r="615" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C615" s="3"/>
+    </row>
+    <row r="616" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C616" s="3"/>
+    </row>
+    <row r="617" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C617" s="3"/>
+    </row>
+    <row r="618" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C618" s="3"/>
+    </row>
+    <row r="619" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C619" s="3"/>
+    </row>
+    <row r="620" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C620" s="3"/>
+    </row>
+    <row r="621" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C621" s="3"/>
+    </row>
+    <row r="622" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C622" s="3"/>
+    </row>
+    <row r="623" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C623" s="3"/>
+    </row>
+    <row r="624" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C624" s="3"/>
+    </row>
+    <row r="625" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C625" s="3"/>
+    </row>
+    <row r="626" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C626" s="3"/>
+    </row>
+    <row r="627" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C627" s="3"/>
+    </row>
+    <row r="628" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C628" s="3"/>
+    </row>
+    <row r="629" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C629" s="3"/>
+    </row>
+    <row r="630" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C630" s="3"/>
+    </row>
+    <row r="631" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C631" s="3"/>
+    </row>
+    <row r="632" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C632" s="3"/>
+    </row>
+    <row r="633" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C633" s="3"/>
+    </row>
+    <row r="634" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C634" s="3"/>
+    </row>
+    <row r="635" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C635" s="3"/>
+    </row>
+    <row r="636" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C636" s="3"/>
+    </row>
+    <row r="637" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C637" s="3"/>
+    </row>
+    <row r="638" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C638" s="3"/>
+    </row>
+    <row r="639" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C639" s="3"/>
+    </row>
+    <row r="640" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C640" s="3"/>
+    </row>
+    <row r="641" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C641" s="3"/>
+    </row>
+    <row r="642" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C642" s="3"/>
+    </row>
+    <row r="643" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C643" s="3"/>
+    </row>
+    <row r="644" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C644" s="3"/>
+    </row>
+    <row r="645" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C645" s="3"/>
+    </row>
+    <row r="646" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C646" s="3"/>
+    </row>
+    <row r="647" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C647" s="3"/>
+    </row>
+    <row r="648" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C648" s="3"/>
+    </row>
+    <row r="649" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C649" s="3"/>
+    </row>
+    <row r="650" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C650" s="3"/>
+    </row>
+    <row r="651" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C651" s="3"/>
+    </row>
+    <row r="652" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C652" s="3"/>
+    </row>
+    <row r="653" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C653" s="3"/>
+    </row>
+    <row r="654" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C654" s="3"/>
+    </row>
+    <row r="655" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C655" s="3"/>
+    </row>
+    <row r="656" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C656" s="3"/>
+    </row>
+    <row r="657" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C657" s="3"/>
+    </row>
+    <row r="658" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C658" s="3"/>
+    </row>
+    <row r="659" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C659" s="3"/>
+    </row>
+    <row r="660" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C660" s="3"/>
+    </row>
+    <row r="661" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C661" s="3"/>
+    </row>
+    <row r="662" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C662" s="3"/>
+    </row>
+    <row r="663" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C663" s="3"/>
+    </row>
+    <row r="664" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C664" s="3"/>
+    </row>
+    <row r="665" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C665" s="3"/>
+    </row>
+    <row r="666" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C666" s="3"/>
+    </row>
+    <row r="667" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C667" s="3"/>
+    </row>
+    <row r="668" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C668" s="3"/>
+    </row>
+    <row r="669" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C669" s="3"/>
+    </row>
+    <row r="670" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C670" s="3"/>
+    </row>
+    <row r="671" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C671" s="3"/>
+    </row>
+    <row r="672" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C672" s="3"/>
+    </row>
+    <row r="673" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C673" s="3"/>
+    </row>
+    <row r="674" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C674" s="3"/>
+    </row>
+    <row r="675" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C675" s="3"/>
+    </row>
+    <row r="676" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C676" s="3"/>
+    </row>
+    <row r="677" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C677" s="3"/>
+    </row>
+    <row r="678" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C678" s="3"/>
+    </row>
+    <row r="679" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C679" s="3"/>
+    </row>
+    <row r="680" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C680" s="3"/>
+    </row>
+    <row r="681" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C681" s="3"/>
+    </row>
+    <row r="682" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C682" s="3"/>
+    </row>
+    <row r="683" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C683" s="3"/>
+    </row>
+    <row r="684" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C684" s="3"/>
+    </row>
+    <row r="685" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C685" s="3"/>
+    </row>
+    <row r="686" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C686" s="3"/>
+    </row>
+    <row r="687" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C687" s="3"/>
+    </row>
+    <row r="688" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C688" s="3"/>
+    </row>
+    <row r="689" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C689" s="3"/>
+    </row>
+    <row r="690" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C690" s="3"/>
+    </row>
+    <row r="691" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C691" s="3"/>
+    </row>
+    <row r="692" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C692" s="3"/>
+    </row>
+    <row r="693" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C693" s="3"/>
+    </row>
+    <row r="694" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C694" s="3"/>
+    </row>
+    <row r="695" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C695" s="3"/>
+    </row>
+    <row r="696" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C696" s="3"/>
+    </row>
+    <row r="697" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C697" s="3"/>
+    </row>
+    <row r="698" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C698" s="3"/>
+    </row>
+    <row r="699" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C699" s="3"/>
+    </row>
+    <row r="700" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C700" s="3"/>
+    </row>
+    <row r="701" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C701" s="3"/>
+    </row>
+    <row r="702" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C702" s="3"/>
+    </row>
+    <row r="703" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C703" s="3"/>
+    </row>
+    <row r="704" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C704" s="3"/>
+    </row>
+    <row r="705" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C705" s="3"/>
+    </row>
+    <row r="706" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C706" s="3"/>
+    </row>
+    <row r="707" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C707" s="3"/>
+    </row>
+    <row r="708" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C708" s="3"/>
+    </row>
+    <row r="709" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C709" s="3"/>
+    </row>
+    <row r="710" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C710" s="3"/>
+    </row>
+    <row r="711" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C711" s="3"/>
+    </row>
+    <row r="712" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C712" s="3"/>
+    </row>
+    <row r="713" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C713" s="3"/>
+    </row>
+    <row r="714" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C714" s="3"/>
+    </row>
+    <row r="715" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C715" s="3"/>
+    </row>
+    <row r="716" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C716" s="3"/>
+    </row>
+    <row r="717" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C717" s="3"/>
+    </row>
+    <row r="718" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C718" s="3"/>
+    </row>
+    <row r="719" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C719" s="3"/>
+    </row>
+    <row r="720" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C720" s="3"/>
+    </row>
+    <row r="721" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C721" s="3"/>
+    </row>
+    <row r="722" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C722" s="3"/>
+    </row>
+    <row r="723" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C723" s="3"/>
+    </row>
+    <row r="724" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C724" s="3"/>
+    </row>
+    <row r="725" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C725" s="3"/>
+    </row>
+    <row r="726" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C726" s="3"/>
+    </row>
+    <row r="727" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C727" s="3"/>
+    </row>
+    <row r="728" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C728" s="3"/>
+    </row>
+    <row r="729" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C729" s="3"/>
+    </row>
+    <row r="730" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C730" s="3"/>
+    </row>
+    <row r="731" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C731" s="3"/>
+    </row>
+    <row r="732" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C732" s="3"/>
+    </row>
+    <row r="733" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C733" s="3"/>
+    </row>
+    <row r="734" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C734" s="3"/>
+    </row>
+    <row r="735" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C735" s="3"/>
+    </row>
+    <row r="736" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C736" s="3"/>
+    </row>
+    <row r="737" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C737" s="3"/>
+    </row>
+    <row r="738" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C738" s="3"/>
+    </row>
+    <row r="739" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C739" s="3"/>
+    </row>
+    <row r="740" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C740" s="3"/>
+    </row>
+    <row r="741" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C741" s="3"/>
+    </row>
+    <row r="742" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C742" s="3"/>
+    </row>
+    <row r="743" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C743" s="3"/>
+    </row>
+    <row r="744" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C744" s="3"/>
+    </row>
+    <row r="745" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C745" s="3"/>
+    </row>
+    <row r="746" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C746" s="3"/>
+    </row>
+    <row r="747" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C747" s="3"/>
+    </row>
+    <row r="748" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C748" s="3"/>
+    </row>
+    <row r="749" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C749" s="3"/>
+    </row>
+    <row r="750" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C750" s="3"/>
+    </row>
+    <row r="751" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C751" s="3"/>
+    </row>
+    <row r="752" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C752" s="3"/>
+    </row>
+    <row r="753" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C753" s="3"/>
+    </row>
+    <row r="754" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C754" s="3"/>
+    </row>
+    <row r="755" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C755" s="3"/>
+    </row>
+    <row r="756" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C756" s="3"/>
+    </row>
+    <row r="757" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C757" s="3"/>
+    </row>
+    <row r="758" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C758" s="3"/>
+    </row>
+    <row r="759" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C759" s="3"/>
+    </row>
+    <row r="760" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C760" s="3"/>
+    </row>
+    <row r="761" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C761" s="3"/>
+    </row>
+    <row r="762" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C762" s="3"/>
+    </row>
+    <row r="763" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C763" s="3"/>
+    </row>
+    <row r="764" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C764" s="3"/>
+    </row>
+    <row r="765" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C765" s="3"/>
+    </row>
+    <row r="766" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C766" s="3"/>
+    </row>
+    <row r="767" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C767" s="3"/>
+    </row>
+    <row r="768" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C768" s="3"/>
+    </row>
+    <row r="769" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C769" s="3"/>
+    </row>
+    <row r="770" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C770" s="3"/>
+    </row>
+    <row r="771" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C771" s="3"/>
+    </row>
+    <row r="772" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C772" s="3"/>
+    </row>
+    <row r="773" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C773" s="3"/>
+    </row>
+    <row r="774" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C774" s="3"/>
+    </row>
+    <row r="775" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C775" s="3"/>
+    </row>
+    <row r="776" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C776" s="3"/>
+    </row>
+    <row r="777" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C777" s="3"/>
+    </row>
+    <row r="778" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C778" s="3"/>
+    </row>
+    <row r="779" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C779" s="3"/>
+    </row>
+    <row r="780" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C780" s="3"/>
+    </row>
+    <row r="781" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C781" s="3"/>
+    </row>
+    <row r="782" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C782" s="3"/>
+    </row>
+    <row r="783" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C783" s="3"/>
+    </row>
+    <row r="784" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C784" s="3"/>
+    </row>
+    <row r="785" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C785" s="3"/>
+    </row>
+    <row r="786" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C786" s="3"/>
+    </row>
+    <row r="787" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C787" s="3"/>
+    </row>
+    <row r="788" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C788" s="3"/>
+    </row>
+    <row r="789" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C789" s="3"/>
+    </row>
+    <row r="790" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C790" s="3"/>
+    </row>
+    <row r="791" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C791" s="3"/>
+    </row>
+    <row r="792" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C792" s="3"/>
+    </row>
+    <row r="793" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C793" s="3"/>
+    </row>
+    <row r="794" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C794" s="3"/>
+    </row>
+    <row r="795" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C795" s="3"/>
+    </row>
+    <row r="796" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C796" s="3"/>
+    </row>
+    <row r="797" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C797" s="3"/>
+    </row>
+    <row r="798" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C798" s="3"/>
+    </row>
+    <row r="799" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C799" s="3"/>
+    </row>
+    <row r="800" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C800" s="3"/>
+    </row>
+    <row r="801" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C801" s="3"/>
+    </row>
+    <row r="802" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C802" s="3"/>
+    </row>
+    <row r="803" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C803" s="3"/>
+    </row>
+    <row r="804" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C804" s="3"/>
+    </row>
+    <row r="805" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C805" s="3"/>
+    </row>
+    <row r="806" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C806" s="3"/>
+    </row>
+    <row r="807" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C807" s="3"/>
+    </row>
+    <row r="808" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C808" s="3"/>
+    </row>
+    <row r="809" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C809" s="3"/>
+    </row>
+    <row r="810" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C810" s="3"/>
+    </row>
+    <row r="811" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C811" s="3"/>
+    </row>
+    <row r="812" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C812" s="3"/>
+    </row>
+    <row r="813" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C813" s="3"/>
+    </row>
+    <row r="814" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C814" s="3"/>
+    </row>
+    <row r="815" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C815" s="3"/>
+    </row>
+    <row r="816" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C816" s="3"/>
+    </row>
+    <row r="817" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C817" s="3"/>
+    </row>
+    <row r="818" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C818" s="3"/>
+    </row>
+    <row r="819" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C819" s="3"/>
+    </row>
+    <row r="820" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C820" s="3"/>
+    </row>
+    <row r="821" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C821" s="3"/>
+    </row>
+    <row r="822" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C822" s="3"/>
+    </row>
+    <row r="823" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C823" s="3"/>
+    </row>
+    <row r="824" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C824" s="3"/>
+    </row>
+    <row r="825" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C825" s="3"/>
+    </row>
+    <row r="826" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C826" s="3"/>
+    </row>
+    <row r="827" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C827" s="3"/>
+    </row>
+    <row r="828" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C828" s="3"/>
+    </row>
+    <row r="829" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C829" s="3"/>
+    </row>
+    <row r="830" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C830" s="3"/>
+    </row>
+    <row r="831" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C831" s="3"/>
+    </row>
+    <row r="832" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C832" s="3"/>
+    </row>
+    <row r="833" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C833" s="3"/>
+    </row>
+    <row r="834" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C834" s="3"/>
+    </row>
+    <row r="835" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C835" s="3"/>
+    </row>
+    <row r="836" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C836" s="3"/>
+    </row>
+    <row r="837" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C837" s="3"/>
+    </row>
+    <row r="838" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C838" s="3"/>
+    </row>
+    <row r="839" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C839" s="3"/>
+    </row>
+    <row r="840" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C840" s="3"/>
+    </row>
+    <row r="841" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C841" s="3"/>
+    </row>
+    <row r="842" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C842" s="3"/>
+    </row>
+    <row r="843" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C843" s="3"/>
+    </row>
+    <row r="844" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C844" s="3"/>
+    </row>
+    <row r="845" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C845" s="3"/>
+    </row>
+    <row r="846" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C846" s="3"/>
+    </row>
+    <row r="847" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C847" s="3"/>
+    </row>
+    <row r="848" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C848" s="3"/>
+    </row>
+    <row r="849" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C849" s="3"/>
+    </row>
+    <row r="850" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C850" s="3"/>
+    </row>
+    <row r="851" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C851" s="3"/>
+    </row>
+    <row r="852" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C852" s="3"/>
+    </row>
+    <row r="853" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C853" s="3"/>
+    </row>
+    <row r="854" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C854" s="3"/>
+    </row>
+    <row r="855" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C855" s="3"/>
+    </row>
+    <row r="856" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C856" s="3"/>
+    </row>
+    <row r="857" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C857" s="3"/>
+    </row>
+    <row r="858" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C858" s="3"/>
+    </row>
+    <row r="859" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C859" s="3"/>
+    </row>
+    <row r="860" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C860" s="3"/>
+    </row>
+    <row r="861" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C861" s="3"/>
+    </row>
+    <row r="862" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C862" s="3"/>
+    </row>
+    <row r="863" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C863" s="3"/>
+    </row>
+    <row r="864" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C864" s="3"/>
+    </row>
+    <row r="865" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C865" s="3"/>
+    </row>
+    <row r="866" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C866" s="3"/>
+    </row>
+    <row r="867" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C867" s="3"/>
+    </row>
+    <row r="868" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C868" s="3"/>
+    </row>
+    <row r="869" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C869" s="3"/>
+    </row>
+    <row r="870" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C870" s="3"/>
+    </row>
+    <row r="871" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C871" s="3"/>
+    </row>
+    <row r="872" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C872" s="3"/>
+    </row>
+    <row r="873" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C873" s="3"/>
+    </row>
+    <row r="874" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C874" s="3"/>
+    </row>
+    <row r="875" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C875" s="3"/>
+    </row>
+    <row r="876" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C876" s="3"/>
+    </row>
+    <row r="877" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C877" s="3"/>
+    </row>
+    <row r="878" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C878" s="3"/>
+    </row>
+    <row r="879" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C879" s="3"/>
+    </row>
+    <row r="880" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C880" s="3"/>
+    </row>
+    <row r="881" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C881" s="3"/>
+    </row>
+    <row r="882" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C882" s="3"/>
+    </row>
+    <row r="883" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C883" s="3"/>
+    </row>
+    <row r="884" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C884" s="3"/>
+    </row>
+    <row r="885" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C885" s="3"/>
+    </row>
+    <row r="886" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C886" s="3"/>
+    </row>
+    <row r="887" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C887" s="3"/>
+    </row>
+    <row r="888" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C888" s="3"/>
+    </row>
+    <row r="889" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C889" s="3"/>
+    </row>
+    <row r="890" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C890" s="3"/>
+    </row>
+    <row r="891" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C891" s="3"/>
+    </row>
+    <row r="892" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C892" s="3"/>
+    </row>
+    <row r="893" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C893" s="3"/>
+    </row>
+    <row r="894" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C894" s="3"/>
+    </row>
+    <row r="895" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C895" s="3"/>
+    </row>
+    <row r="896" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C896" s="3"/>
+    </row>
+    <row r="897" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C897" s="3"/>
+    </row>
+    <row r="898" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C898" s="3"/>
+    </row>
+    <row r="899" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C899" s="3"/>
+    </row>
+    <row r="900" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C900" s="3"/>
+    </row>
+    <row r="901" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C901" s="3"/>
+    </row>
+    <row r="902" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C902" s="3"/>
+    </row>
+    <row r="903" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C903" s="3"/>
+    </row>
+    <row r="904" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C904" s="3"/>
+    </row>
+    <row r="905" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C905" s="3"/>
+    </row>
+    <row r="906" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C906" s="3"/>
+    </row>
+    <row r="907" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C907" s="3"/>
+    </row>
+    <row r="908" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C908" s="3"/>
+    </row>
+    <row r="909" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C909" s="3"/>
+    </row>
+    <row r="910" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C910" s="3"/>
+    </row>
+    <row r="911" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C911" s="3"/>
+    </row>
+    <row r="912" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C912" s="3"/>
+    </row>
+    <row r="913" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C913" s="3"/>
+    </row>
+    <row r="914" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C914" s="3"/>
+    </row>
+    <row r="915" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C915" s="3"/>
+    </row>
+    <row r="916" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C916" s="3"/>
+    </row>
+    <row r="917" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C917" s="3"/>
+    </row>
+    <row r="918" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C918" s="3"/>
+    </row>
+    <row r="919" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C919" s="3"/>
+    </row>
+    <row r="920" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C920" s="3"/>
+    </row>
+    <row r="921" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C921" s="3"/>
+    </row>
+    <row r="922" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C922" s="3"/>
+    </row>
+    <row r="923" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C923" s="3"/>
+    </row>
+    <row r="924" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C924" s="3"/>
+    </row>
+    <row r="925" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C925" s="3"/>
+    </row>
+    <row r="926" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C926" s="3"/>
+    </row>
+    <row r="927" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C927" s="3"/>
+    </row>
+    <row r="928" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C928" s="3"/>
+    </row>
+    <row r="929" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C929" s="3"/>
+    </row>
+    <row r="930" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C930" s="3"/>
+    </row>
+    <row r="931" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C931" s="3"/>
+    </row>
+    <row r="932" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C932" s="3"/>
+    </row>
+    <row r="933" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C933" s="3"/>
+    </row>
+    <row r="934" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C934" s="3"/>
+    </row>
+    <row r="935" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C935" s="3"/>
+    </row>
+    <row r="936" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C936" s="3"/>
+    </row>
+    <row r="937" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C937" s="3"/>
+    </row>
+    <row r="938" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C938" s="3"/>
+    </row>
+    <row r="939" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C939" s="3"/>
+    </row>
+    <row r="940" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C940" s="3"/>
+    </row>
+    <row r="941" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C941" s="3"/>
+    </row>
+    <row r="942" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C942" s="3"/>
+    </row>
+    <row r="943" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C943" s="3"/>
+    </row>
+    <row r="944" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C944" s="3"/>
+    </row>
+    <row r="945" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C945" s="3"/>
+    </row>
+    <row r="946" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C946" s="3"/>
+    </row>
+    <row r="947" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C947" s="3"/>
+    </row>
+    <row r="948" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C948" s="3"/>
+    </row>
+    <row r="949" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C949" s="3"/>
+    </row>
+    <row r="950" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C950" s="3"/>
+    </row>
+    <row r="951" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C951" s="3"/>
+    </row>
+    <row r="952" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C952" s="3"/>
+    </row>
+    <row r="953" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C953" s="3"/>
+    </row>
+    <row r="954" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C954" s="3"/>
+    </row>
+    <row r="955" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C955" s="3"/>
+    </row>
+    <row r="956" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C956" s="3"/>
+    </row>
+    <row r="957" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C957" s="3"/>
+    </row>
+    <row r="958" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C958" s="3"/>
+    </row>
+    <row r="959" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C959" s="3"/>
+    </row>
+    <row r="960" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C960" s="3"/>
+    </row>
+    <row r="961" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C961" s="3"/>
+    </row>
+    <row r="962" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C962" s="3"/>
+    </row>
+    <row r="963" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C963" s="3"/>
+    </row>
+    <row r="964" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C964" s="3"/>
+    </row>
+    <row r="965" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C965" s="3"/>
+    </row>
+    <row r="966" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C966" s="3"/>
+    </row>
+    <row r="967" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C967" s="3"/>
+    </row>
+    <row r="968" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C968" s="3"/>
+    </row>
+    <row r="969" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C969" s="3"/>
+    </row>
+    <row r="970" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C970" s="3"/>
+    </row>
+    <row r="971" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C971" s="3"/>
+    </row>
+    <row r="972" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C972" s="3"/>
+    </row>
+    <row r="973" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C973" s="3"/>
+    </row>
+    <row r="974" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C974" s="3"/>
+    </row>
+    <row r="975" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C975" s="3"/>
+    </row>
+    <row r="976" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C976" s="3"/>
+    </row>
+    <row r="977" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C977" s="3"/>
+    </row>
+    <row r="978" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C978" s="3"/>
+    </row>
+    <row r="979" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C979" s="3"/>
+    </row>
+    <row r="980" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C980" s="3"/>
+    </row>
+    <row r="981" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C981" s="3"/>
+    </row>
+    <row r="982" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C982" s="3"/>
+    </row>
+    <row r="983" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C983" s="3"/>
+    </row>
+    <row r="984" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C984" s="3"/>
+    </row>
+    <row r="985" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C985" s="3"/>
+    </row>
+    <row r="986" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C986" s="3"/>
+    </row>
+    <row r="987" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C987" s="3"/>
+    </row>
+    <row r="988" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C988" s="3"/>
+    </row>
+    <row r="989" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C989" s="3"/>
+    </row>
+    <row r="990" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C990" s="3"/>
+    </row>
+    <row r="991" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C991" s="3"/>
+    </row>
+    <row r="992" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C992" s="3"/>
+    </row>
+    <row r="993" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C993" s="3"/>
+    </row>
+    <row r="994" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C994" s="3"/>
+    </row>
+    <row r="995" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C995" s="3"/>
+    </row>
+    <row r="996" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C996" s="3"/>
+    </row>
+    <row r="997" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C997" s="3"/>
+    </row>
+    <row r="998" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C998" s="3"/>
+    </row>
+    <row r="999" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C999" s="3"/>
+    </row>
+    <row r="1000" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1000" s="3"/>
+    </row>
+    <row r="1001" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1001" s="3"/>
+    </row>
+    <row r="1002" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1002" s="3"/>
+    </row>
+    <row r="1003" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1003" s="3"/>
+    </row>
+    <row r="1004" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1004" s="3"/>
+    </row>
+    <row r="1005" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1005" s="3"/>
+    </row>
+    <row r="1006" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1006" s="3"/>
+    </row>
+    <row r="1007" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1007" s="3"/>
+    </row>
+    <row r="1008" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1008" s="3"/>
+    </row>
+    <row r="1009" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1009" s="3"/>
+    </row>
+    <row r="1010" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1010" s="3"/>
+    </row>
+    <row r="1011" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1011" s="3"/>
+    </row>
+    <row r="1012" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1012" s="3"/>
+    </row>
+    <row r="1013" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1013" s="3"/>
+    </row>
+    <row r="1014" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1014" s="3"/>
+    </row>
+    <row r="1015" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1015" s="3"/>
+    </row>
+    <row r="1016" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1016" s="3"/>
+    </row>
+    <row r="1017" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1017" s="3"/>
+    </row>
+    <row r="1018" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1018" s="3"/>
+    </row>
+    <row r="1019" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1019" s="3"/>
+    </row>
+    <row r="1020" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1020" s="3"/>
+    </row>
+    <row r="1021" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1021" s="3"/>
+    </row>
+    <row r="1022" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1022" s="3"/>
+    </row>
+    <row r="1023" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1023" s="3"/>
+    </row>
+    <row r="1024" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1024" s="3"/>
+    </row>
+    <row r="1025" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1025" s="3"/>
+    </row>
+    <row r="1026" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1026" s="3"/>
+    </row>
+    <row r="1027" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1027" s="3"/>
+    </row>
+    <row r="1028" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1028" s="3"/>
+    </row>
+    <row r="1029" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1029" s="3"/>
+    </row>
+    <row r="1030" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1030" s="3"/>
+    </row>
+    <row r="1031" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1031" s="3"/>
+    </row>
+    <row r="1032" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1032" s="3"/>
+    </row>
+    <row r="1033" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1033" s="3"/>
+    </row>
+    <row r="1034" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1034" s="3"/>
+    </row>
+    <row r="1035" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1035" s="3"/>
+    </row>
+    <row r="1036" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1036" s="3"/>
+    </row>
+    <row r="1037" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1037" s="3"/>
+    </row>
+    <row r="1038" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1038" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -39846,14 +44536,3517 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="28.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>491</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2308</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>492</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>2313</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>493</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>2317</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>2318</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>494</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>2323</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>495</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>2327</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>2328</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>496</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>2332</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>497</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>2335</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>498</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2337</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>2338</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>2346</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>2347</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>2348</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1885</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>2352</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>1886</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>2353</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>2356</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>2357</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>2358</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>2359</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>2363</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>1716</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>504</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>505</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>2370</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>2371</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>2372</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>506</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>507</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>2380</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>2381</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>2385</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>2386</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>509</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>2389</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>2390</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>2394</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>511</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>2397</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>2398</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>2401</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>2402</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>513</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>2411</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>1888</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>2412</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>2413</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>515</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>2417</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>2418</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>2419</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>516</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>2423</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>517</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>2428</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>2432</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>519</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>2436</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>2438</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>2439</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>2443</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>521</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>2446</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>522</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>2450</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2451</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>523</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>2455</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>524</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>2459</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>2463</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>526</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>2466</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>527</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>2471</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="n">
+        <v>528</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>2475</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>529</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>2478</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>530</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>531</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>2489</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="28.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>532</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2493</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2494</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2495</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>533</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2497</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2498</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>2499</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>2500</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>534</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>2504</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>2505</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>535</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2509</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>536</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>2513</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>537</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>2516</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>2517</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>538</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>539</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>2529</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>541</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>2534</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>2535</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="28.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>542</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2539</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2540</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>1854</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2541</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>1854</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>543</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>2545</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>544</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>2549</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>545</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2553</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>2554</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>546</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2557</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>2558</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z75"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F75" activeCellId="0" sqref="F75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="28.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>547</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2562</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2563</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2564</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2565</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>2566</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>548</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>2570</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>549</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2578</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>2582</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>552</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>2586</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>553</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>2590</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>554</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>2594</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>555</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>2598</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>556</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>2602</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>557</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>2606</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>558</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>2610</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>559</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>2614</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>560</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>561</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>562</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>2626</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>563</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>2630</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>564</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>2634</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>2635</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>565</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>2639</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>2640</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>2644</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>567</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>2647</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>2648</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>2649</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>568</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>2654</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>2655</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>569</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>2659</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>2663</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>2664</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>571</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>2668</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>572</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>2672</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>573</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>2677</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>2681</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>575</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>2685</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>2689</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>577</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>2692</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>2693</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2694</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>578</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>2697</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>2698</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>579</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>2702</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>2706</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>2707</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>581</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>2711</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>2713</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>582</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>2716</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>2717</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>2721</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="n">
+        <v>584</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>2725</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>2729</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>586</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>2733</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>2734</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>587</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>2739</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>588</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>2742</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>2743</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>2744</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>589</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>2748</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>590</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>2751</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>2752</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>591</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>2756</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>592</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>2759</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>2760</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>593</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>2763</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>2764</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>594</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>2768</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>2769</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>2770</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>595</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>2773</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>596</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>2777</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>597</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>2780</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>2781</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>598</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>2785</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>2786</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>599</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>2791</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>2794</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>2795</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>2796</v>
+      </c>
+      <c r="X55" s="0" t="s">
+        <v>2797</v>
+      </c>
+      <c r="Y55" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z55" s="0" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>601</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>2800</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>2801</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>2802</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>2803</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>2804</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>2805</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="n">
+        <v>602</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>2809</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>2814</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <v>604</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>2818</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="n">
+        <v>605</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>2821</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>2822</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>2826</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="n">
+        <v>607</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>2830</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>2831</v>
+      </c>
+      <c r="X62" s="0" t="s">
+        <v>2832</v>
+      </c>
+      <c r="Y62" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z62" s="0" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="n">
+        <v>608</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <v>609</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="n">
+        <v>610</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>2844</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="n">
+        <v>611</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="n">
+        <v>612</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>2852</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="n">
+        <v>613</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>2856</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="n">
+        <v>614</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="n">
+        <v>615</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>2863</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="n">
+        <v>616</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>2867</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="n">
+        <v>617</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>2871</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="n">
+        <v>618</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>2874</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>2875</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="n">
+        <v>619</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>2879</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="n">
+        <v>620</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
